--- a/media/import/image/image catalogue.xlsx
+++ b/media/import/image/image catalogue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="0" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="394">
   <si>
     <t>SKU</t>
   </si>
@@ -1144,6 +1144,63 @@
   </si>
   <si>
     <t>golden-deli-temple-city-3</t>
+  </si>
+  <si>
+    <t>little-beast-los-angeles-2</t>
+  </si>
+  <si>
+    <t>animal-los-angeles</t>
+  </si>
+  <si>
+    <t>the-kitchen-los-angeles</t>
+  </si>
+  <si>
+    <t>la-rose-cafe-los-angeles-2</t>
+  </si>
+  <si>
+    <t>granville-glendale</t>
+  </si>
+  <si>
+    <t>parkway-grill-pasadena</t>
+  </si>
+  <si>
+    <t>green-street-tavern-pasadena</t>
+  </si>
+  <si>
+    <t>south-beverly-grill-beverly-hills</t>
+  </si>
+  <si>
+    <t>bld-los-angeles</t>
+  </si>
+  <si>
+    <t>brand-158-glendale</t>
+  </si>
+  <si>
+    <t>blue-cow-kitchen-los-angeles</t>
+  </si>
+  <si>
+    <t>blairs-restaurant-los-angeles</t>
+  </si>
+  <si>
+    <t>a-food-affair-los-angeles</t>
+  </si>
+  <si>
+    <t>ink-los-angeles-2</t>
+  </si>
+  <si>
+    <t>aka-an-american-bistro-pasadena-2</t>
+  </si>
+  <si>
+    <t>grub-los-angeles</t>
+  </si>
+  <si>
+    <t>truxtons-american-bistro-los-angeles</t>
+  </si>
+  <si>
+    <t>granville-burbank-2</t>
+  </si>
+  <si>
+    <t>lucques-west-hollywood-2</t>
   </si>
 </sst>
 </file>
@@ -1156,6 +1213,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1192,8 +1250,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1244,7 +1304,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1268,6 +1328,7 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1291,6 +1352,7 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1620,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B375"/>
+  <dimension ref="A1:B394"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A342" workbookViewId="0">
-      <selection activeCell="B375" sqref="B375"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A366" workbookViewId="0">
+      <selection activeCell="B393" sqref="B393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4632,6 +4694,158 @@
         <v>374</v>
       </c>
     </row>
+    <row r="376" spans="1:2">
+      <c r="A376" t="s">
+        <v>375</v>
+      </c>
+      <c r="B376" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" t="s">
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" t="s">
+        <v>377</v>
+      </c>
+      <c r="B378" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" t="s">
+        <v>378</v>
+      </c>
+      <c r="B379" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" t="s">
+        <v>379</v>
+      </c>
+      <c r="B380" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" t="s">
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" t="s">
+        <v>381</v>
+      </c>
+      <c r="B382" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" t="s">
+        <v>382</v>
+      </c>
+      <c r="B383" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" t="s">
+        <v>383</v>
+      </c>
+      <c r="B384" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" t="s">
+        <v>384</v>
+      </c>
+      <c r="B385" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" t="s">
+        <v>385</v>
+      </c>
+      <c r="B386" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" t="s">
+        <v>386</v>
+      </c>
+      <c r="B387" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" t="s">
+        <v>387</v>
+      </c>
+      <c r="B388" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" t="s">
+        <v>388</v>
+      </c>
+      <c r="B389" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" t="s">
+        <v>389</v>
+      </c>
+      <c r="B390" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" t="s">
+        <v>390</v>
+      </c>
+      <c r="B391" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" t="s">
+        <v>391</v>
+      </c>
+      <c r="B392" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" t="s">
+        <v>392</v>
+      </c>
+      <c r="B393" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" t="s">
+        <v>393</v>
+      </c>
+      <c r="B394" t="s">
+        <v>393</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
